--- a/optimized_intellight/timing_diagram.xlsx
+++ b/optimized_intellight/timing_diagram.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\riset\optimized_intellight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\intelligent_traffic_light\optimized_intellight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{640C129E-60DA-4730-823C-016FA8080C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF01D40-5DB6-4158-BD0C-DBF6E2ABA012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9096" yWindow="2652" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="94">
   <si>
     <t>SD</t>
   </si>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>STATE12</t>
+  </si>
+  <si>
+    <t>MUL0</t>
+  </si>
+  <si>
+    <t>MUL1</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>STATE13</t>
+  </si>
+  <si>
+    <t>STATE14</t>
   </si>
 </sst>
 </file>
@@ -311,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +372,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -367,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -387,6 +417,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -394,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,10 +748,10 @@
       <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="2" t="s">
         <v>82</v>
       </c>
@@ -750,7 +791,7 @@
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -782,7 +823,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
@@ -812,7 +853,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -844,7 +885,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
@@ -874,7 +915,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
@@ -904,7 +945,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -939,7 +980,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -969,7 +1010,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1002,7 +1043,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1031,7 +1072,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1058,7 +1099,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1088,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1162,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="5"/>
       <c r="G15" s="3" t="s">
         <v>47</v>
@@ -1149,7 +1190,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1182,7 +1223,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="5"/>
       <c r="F17" s="1" t="s">
         <v>23</v>
@@ -1216,7 +1257,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1260,7 +1301,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1349,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1726,4 +1767,1111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCE0C8E-1280-4A3C-AA0F-82B420B30BDF}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/optimized_intellight/timing_diagram.xlsx
+++ b/optimized_intellight/timing_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\intelligent_traffic_light\optimized_intellight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF01D40-5DB6-4158-BD0C-DBF6E2ABA012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4AEF2A-FECD-42CF-BBD1-4BAB4332B068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9096" yWindow="2652" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9276" yWindow="2160" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="94">
   <si>
     <t>SD</t>
   </si>
@@ -314,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +324,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -424,6 +432,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +760,10 @@
       <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="2" t="s">
         <v>82</v>
       </c>
@@ -791,7 +803,7 @@
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -823,7 +835,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
@@ -853,7 +865,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -885,7 +897,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
@@ -915,7 +927,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
@@ -945,7 +957,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -980,7 +992,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1010,7 +1022,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1043,7 +1055,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1072,7 +1084,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +1111,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1129,7 +1141,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1174,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="5"/>
       <c r="G15" s="3" t="s">
         <v>47</v>
@@ -1190,7 +1202,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1223,7 +1235,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="5"/>
       <c r="F17" s="1" t="s">
         <v>23</v>
@@ -1257,7 +1269,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1301,7 +1313,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1349,7 +1361,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1773,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCE0C8E-1280-4A3C-AA0F-82B420B30BDF}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,50 +1797,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1854,7 +1866,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1886,7 +1898,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1919,7 +1931,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1951,7 +1963,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1984,7 +1996,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2014,7 +2026,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2052,7 +2064,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -2085,7 +2097,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2118,10 +2130,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2150,8 +2162,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2175,7 +2187,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="14" t="s">
         <v>90</v>
       </c>
@@ -2208,10 +2220,13 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="14" t="s">
         <v>91</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2256,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -2274,8 +2289,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,10 +2320,13 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="14" t="s">
         <v>90</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2344,7 +2362,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2394,7 +2412,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2448,7 +2466,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
